--- a/Thesis Proposal/Expected Timeframe.xlsx
+++ b/Thesis Proposal/Expected Timeframe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16120"/>
+    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
     <t>Conclusions</t>
   </si>
   <si>
-    <t>Summarise the Findings. Outline and strengths of the study.</t>
-  </si>
-  <si>
     <t>This section will focus on the accuracy of the the algorithm and its predictions. These accuracies will be compared to existing studies that will be outlined in the literature review</t>
+  </si>
+  <si>
+    <t>Summarise the Findings. Outline the strengths of the study and any possible recommendations for future work.</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,7 +573,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -582,12 +582,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
